--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -1197,7 +1197,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1254,9 @@
         <v>10</v>
       </c>
       <c r="B6" s="38"/>
-      <c r="C6" s="48"/>
+      <c r="C6" s="48">
+        <v>1</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>55</v>
       </c>
@@ -1271,11 +1273,9 @@
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="B8" s="23"/>
       <c r="C8" s="17">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>55</v>
@@ -2695,11 +2695,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2715,6 +2710,11 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OdontoSys" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -140,9 +140,6 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>Error en Alta</t>
-  </si>
-  <si>
     <t>Botón Ayuda</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
   </si>
   <si>
     <t>Ver Consultas en el paciente. Modificar.</t>
-  </si>
-  <si>
-    <t>Cuadro diálogo en B. Retorno en M. Ver botones Cancelar y Volver.</t>
   </si>
   <si>
     <t>Ver modificar. Refresh al modificar o eliminar</t>
@@ -1196,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1204,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -1232,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1258,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1278,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1293,14 +1287,12 @@
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>41</v>
-      </c>
+      <c r="B10" s="26"/>
       <c r="C10" s="43">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,13 +1300,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="43">
         <v>0.5</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,13 +1314,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="17">
         <v>0.6</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1336,13 +1328,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="17">
         <v>0.5</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1350,13 +1342,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="17">
         <v>0.5</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1364,13 +1356,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="17">
         <v>0.5</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1378,13 +1370,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="17">
         <v>0.7</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1400,13 +1392,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="17">
         <v>0.8</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1422,13 +1414,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17">
         <v>0.9</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1444,13 +1436,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17">
         <v>0.8</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1458,13 +1450,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="17">
         <v>0.7</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1480,13 +1472,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="17">
         <v>0.5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1494,13 +1486,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="17">
         <v>0.5</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1508,13 +1500,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="17">
         <v>0.5</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1522,13 +1514,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="17">
         <v>0.5</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1536,13 +1528,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="17">
         <v>0.5</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1550,18 +1542,18 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="17">
         <v>0.5</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
@@ -1569,16 +1561,16 @@
     </row>
     <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="35">
         <v>0.8</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1594,13 +1586,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" s="48">
         <v>0.5</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1608,27 +1600,27 @@
         <v>29</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="17">
         <v>0.5</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1636,13 +1628,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1681,8 +1673,8 @@
   </sheetPr>
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AA37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1700,7 +1692,7 @@
   <sheetData>
     <row r="1" spans="2:27" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1736,7 +1728,7 @@
       <c r="V2" s="67"/>
       <c r="W2" s="11"/>
       <c r="X2" s="68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y2" s="69"/>
       <c r="Z2" s="69"/>
@@ -1898,11 +1890,9 @@
       <c r="F6" s="37">
         <v>3</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>33</v>
-      </c>
+      <c r="G6" s="41"/>
       <c r="H6" s="39">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -1951,11 +1941,9 @@
       <c r="F8" s="14">
         <v>3</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="G8" s="20"/>
       <c r="H8" s="15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -1988,7 +1976,7 @@
       <c r="Z9" s="49"/>
       <c r="AA9" s="49"/>
     </row>
-    <row r="10" spans="2:27" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
@@ -2004,11 +1992,9 @@
       <c r="F10" s="25">
         <v>3</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>41</v>
-      </c>
+      <c r="G10" s="26"/>
       <c r="H10" s="17">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2028,7 +2014,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="15">
         <v>0.5</v>
@@ -2051,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12" s="15">
         <v>0.6</v>
@@ -2074,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13" s="15">
         <v>0.5</v>
@@ -2097,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="15">
         <v>0.5</v>
@@ -2120,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H15" s="15">
         <v>0.5</v>
@@ -2143,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="15">
         <v>0.7</v>
@@ -2196,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="17">
         <v>0.8</v>
@@ -2249,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="15">
         <v>0.9</v>
@@ -2302,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="17">
         <v>0.8</v>
@@ -2325,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H23" s="17">
         <v>0.7</v>
@@ -2378,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25" s="15">
         <v>0.5</v>
@@ -2401,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H26" s="15">
         <v>0.5</v>
@@ -2424,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" s="15">
         <v>0.5</v>
@@ -2447,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H28" s="15">
         <v>0.5</v>
@@ -2470,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H29" s="15">
         <v>0.5</v>
@@ -2493,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H30" s="15">
         <v>0.5</v>
@@ -2501,7 +2487,7 @@
     </row>
     <row r="31" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B31" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
@@ -2531,7 +2517,7 @@
     </row>
     <row r="32" spans="2:27" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="33">
         <v>18</v>
@@ -2546,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" s="35">
         <v>0.8</v>
@@ -2618,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H34" s="39">
         <v>0.5</v>
@@ -2641,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35" s="15">
         <v>0.5</v>
@@ -2649,7 +2635,7 @@
     </row>
     <row r="36" spans="2:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="25">
         <v>18</v>
@@ -2664,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2687,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H37" s="15">
         <v>0</v>
@@ -2695,6 +2681,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2710,11 +2701,6 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="OdontoSys" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Según el rol del usuario</t>
-  </si>
-  <si>
-    <t>Cuadro diálogo en B y M</t>
   </si>
   <si>
     <t>Dar formato</t>
@@ -1190,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1201,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -1226,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1272,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1292,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,13 +1297,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="43">
         <v>0.5</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1314,13 +1311,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="17">
         <v>0.6</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1328,13 +1325,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="17">
         <v>0.5</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1342,13 +1339,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="17">
         <v>0.5</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1356,13 +1353,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="17">
         <v>0.5</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1370,13 +1367,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="17">
         <v>0.7</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1392,13 +1389,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="17">
         <v>0.8</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1413,14 +1410,12 @@
       <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="B20" s="23"/>
       <c r="C20" s="17">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1436,13 +1431,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17">
         <v>0.8</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1450,13 +1445,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="17">
         <v>0.7</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1472,13 +1467,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="17">
         <v>0.5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1486,13 +1481,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="17">
         <v>0.5</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1500,13 +1495,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="17">
         <v>0.5</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1514,13 +1509,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="17">
         <v>0.5</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1528,13 +1523,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="17">
         <v>0.5</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1542,13 +1537,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="17">
         <v>0.5</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1564,13 +1559,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="35">
         <v>0.8</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1586,13 +1581,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="48">
         <v>0.5</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1600,27 +1595,27 @@
         <v>29</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="17">
         <v>0.5</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1628,13 +1623,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1673,8 +1668,8 @@
   </sheetPr>
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1692,7 +1687,7 @@
   <sheetData>
     <row r="1" spans="2:27" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1728,7 +1723,7 @@
       <c r="V2" s="67"/>
       <c r="W2" s="11"/>
       <c r="X2" s="68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="69"/>
       <c r="Z2" s="69"/>
@@ -2014,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="15">
         <v>0.5</v>
@@ -2037,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="15">
         <v>0.6</v>
@@ -2060,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="15">
         <v>0.5</v>
@@ -2083,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="15">
         <v>0.5</v>
@@ -2106,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="15">
         <v>0.5</v>
@@ -2129,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="15">
         <v>0.7</v>
@@ -2182,7 +2177,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="17">
         <v>0.8</v>
@@ -2234,11 +2229,9 @@
       <c r="F20" s="14">
         <v>3</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="G20" s="20"/>
       <c r="H20" s="15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -2288,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="17">
         <v>0.8</v>
@@ -2311,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="17">
         <v>0.7</v>
@@ -2364,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="15">
         <v>0.5</v>
@@ -2387,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" s="15">
         <v>0.5</v>
@@ -2410,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" s="15">
         <v>0.5</v>
@@ -2433,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H28" s="15">
         <v>0.5</v>
@@ -2456,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" s="15">
         <v>0.5</v>
@@ -2479,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" s="15">
         <v>0.5</v>
@@ -2532,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32" s="35">
         <v>0.8</v>
@@ -2604,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" s="39">
         <v>0.5</v>
@@ -2627,7 +2620,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" s="15">
         <v>0.5</v>
@@ -2635,7 +2628,7 @@
     </row>
     <row r="36" spans="2:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="25">
         <v>18</v>
@@ -2650,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2673,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" s="15">
         <v>0</v>
@@ -2681,11 +2674,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2701,6 +2689,11 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="55">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,15 +1384,13 @@
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="26"/>
       <c r="C18" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>52</v>
@@ -2674,6 +2672,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2689,11 +2692,6 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>Dar formato</t>
-  </si>
-  <si>
-    <t>Modificar y cuadro diálogo al cambiar estado. Ver restricción de fechas.</t>
-  </si>
-  <si>
-    <t>Revisar restricciones en Alta y Baja. Ver cuadro diálogo</t>
   </si>
   <si>
     <t>Ver Consultas en el paciente. Modificar.</t>
@@ -1188,7 +1182,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1195,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -1223,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1269,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1289,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,13 +1291,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="43">
         <v>0.5</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,13 +1305,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="17">
         <v>0.6</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1325,13 +1319,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="17">
         <v>0.5</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1339,13 +1333,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="17">
         <v>0.5</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1353,13 +1347,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="17">
         <v>0.5</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1367,13 +1361,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="17">
         <v>0.7</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1393,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1413,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1424,18 +1418,16 @@
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>37</v>
-      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1443,13 +1435,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="17">
         <v>0.7</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1465,13 +1457,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="17">
         <v>0.5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1479,13 +1471,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17">
         <v>0.5</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1493,13 +1485,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="17">
         <v>0.5</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1507,13 +1499,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="17">
         <v>0.5</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1521,13 +1513,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="17">
         <v>0.5</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1535,13 +1527,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="17">
         <v>0.5</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1563,7 +1555,7 @@
         <v>0.8</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1579,13 +1571,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="48">
         <v>0.5</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1593,27 +1585,27 @@
         <v>29</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" s="17">
         <v>0.5</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1621,13 +1613,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1659,7 @@
   <dimension ref="B1:AA37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1685,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="2:27" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1721,7 +1713,7 @@
       <c r="V2" s="67"/>
       <c r="W2" s="11"/>
       <c r="X2" s="68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y2" s="69"/>
       <c r="Z2" s="69"/>
@@ -2007,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H11" s="15">
         <v>0.5</v>
@@ -2030,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H12" s="15">
         <v>0.6</v>
@@ -2053,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="15">
         <v>0.5</v>
@@ -2076,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" s="15">
         <v>0.5</v>
@@ -2099,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15" s="15">
         <v>0.5</v>
@@ -2122,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16" s="15">
         <v>0.7</v>
@@ -2158,7 +2150,7 @@
       <c r="Z17" s="49"/>
       <c r="AA17" s="49"/>
     </row>
-    <row r="18" spans="2:27" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>10</v>
       </c>
@@ -2174,11 +2166,9 @@
       <c r="F18" s="25">
         <v>6</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>36</v>
-      </c>
+      <c r="G18" s="26"/>
       <c r="H18" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -2262,7 +2252,7 @@
       <c r="Z21" s="49"/>
       <c r="AA21" s="49"/>
     </row>
-    <row r="22" spans="2:27" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>13</v>
       </c>
@@ -2278,11 +2268,9 @@
       <c r="F22" s="25">
         <v>3</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>37</v>
-      </c>
+      <c r="G22" s="26"/>
       <c r="H22" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:27" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -2302,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23" s="17">
         <v>0.7</v>
@@ -2355,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25" s="15">
         <v>0.5</v>
@@ -2378,7 +2366,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H26" s="15">
         <v>0.5</v>
@@ -2401,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H27" s="15">
         <v>0.5</v>
@@ -2424,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H28" s="15">
         <v>0.5</v>
@@ -2447,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H29" s="15">
         <v>0.5</v>
@@ -2470,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H30" s="15">
         <v>0.5</v>
@@ -2595,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H34" s="39">
         <v>0.5</v>
@@ -2618,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H35" s="15">
         <v>0.5</v>
@@ -2626,7 +2614,7 @@
     </row>
     <row r="36" spans="2:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="25">
         <v>18</v>
@@ -2641,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2664,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H37" s="15">
         <v>0</v>
@@ -2672,11 +2660,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2692,6 +2675,11 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OdontoSys" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Ver Consultas en el paciente. Modificar.</t>
-  </si>
-  <si>
-    <t>Ver modificar. Refresh al modificar o eliminar</t>
   </si>
   <si>
     <t>Servicios en fecha</t>
@@ -1181,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1192,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -1217,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1243,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1263,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1283,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,13 +1288,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="43">
         <v>0.5</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,13 +1302,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="17">
         <v>0.6</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1319,13 +1316,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="17">
         <v>0.5</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1333,13 +1330,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="17">
         <v>0.5</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1347,13 +1344,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="17">
         <v>0.5</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1367,7 +1364,7 @@
         <v>0.7</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1387,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1407,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1427,21 +1424,19 @@
         <v>1</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>37</v>
-      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="17">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1457,13 +1452,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="17">
         <v>0.5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1471,13 +1466,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="17">
         <v>0.5</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1485,13 +1480,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="17">
         <v>0.5</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1499,13 +1494,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="17">
         <v>0.5</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1513,13 +1508,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="17">
         <v>0.5</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1527,13 +1522,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="17">
         <v>0.5</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1555,7 +1550,7 @@
         <v>0.8</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1571,13 +1566,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="48">
         <v>0.5</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1585,27 +1580,27 @@
         <v>29</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="17">
         <v>0.5</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1613,13 +1608,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1658,8 +1653,8 @@
   </sheetPr>
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1677,7 +1672,7 @@
   <sheetData>
     <row r="1" spans="2:27" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1713,7 +1708,7 @@
       <c r="V2" s="67"/>
       <c r="W2" s="11"/>
       <c r="X2" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="69"/>
       <c r="Z2" s="69"/>
@@ -1999,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="15">
         <v>0.5</v>
@@ -2022,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="15">
         <v>0.6</v>
@@ -2045,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="15">
         <v>0.5</v>
@@ -2068,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="15">
         <v>0.5</v>
@@ -2091,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="15">
         <v>0.5</v>
@@ -2273,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:27" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
@@ -2289,11 +2284,9 @@
       <c r="F23" s="25">
         <v>3</v>
       </c>
-      <c r="G23" s="26" t="s">
-        <v>37</v>
-      </c>
+      <c r="G23" s="26"/>
       <c r="H23" s="17">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -2343,7 +2336,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="15">
         <v>0.5</v>
@@ -2366,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" s="15">
         <v>0.5</v>
@@ -2389,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" s="15">
         <v>0.5</v>
@@ -2412,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28" s="15">
         <v>0.5</v>
@@ -2435,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29" s="15">
         <v>0.5</v>
@@ -2458,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30" s="15">
         <v>0.5</v>
@@ -2583,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" s="39">
         <v>0.5</v>
@@ -2606,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="15">
         <v>0.5</v>
@@ -2614,7 +2607,7 @@
     </row>
     <row r="36" spans="2:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="25">
         <v>18</v>
@@ -2629,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2652,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H37" s="15">
         <v>0</v>
@@ -2660,6 +2653,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2675,11 +2673,6 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Dar formato</t>
-  </si>
-  <si>
-    <t>Ver Consultas en el paciente. Modificar.</t>
   </si>
   <si>
     <t>Servicios en fecha</t>
@@ -1178,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1189,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -1214,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1240,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1260,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1280,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,13 +1285,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="43">
         <v>0.5</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,13 +1299,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="17">
         <v>0.6</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1316,13 +1313,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="17">
         <v>0.5</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1330,13 +1327,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="17">
         <v>0.5</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1344,27 +1341,25 @@
         <v>18</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="17">
         <v>0.5</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="B16" s="23"/>
       <c r="C16" s="17">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1384,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1404,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1424,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1436,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1452,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="17">
         <v>0.5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1466,13 +1461,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="17">
         <v>0.5</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1480,13 +1475,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="17">
         <v>0.5</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1494,13 +1489,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="17">
         <v>0.5</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1508,13 +1503,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="17">
         <v>0.5</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1522,13 +1517,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="17">
         <v>0.5</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1550,7 +1545,7 @@
         <v>0.8</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1566,13 +1561,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="48">
         <v>0.5</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -1580,27 +1575,27 @@
         <v>29</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="17">
         <v>0.5</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1608,13 +1603,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1653,8 +1648,8 @@
   </sheetPr>
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:AA9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1672,7 +1667,7 @@
   <sheetData>
     <row r="1" spans="2:27" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1708,7 +1703,7 @@
       <c r="V2" s="67"/>
       <c r="W2" s="11"/>
       <c r="X2" s="68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="69"/>
       <c r="Z2" s="69"/>
@@ -1994,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="15">
         <v>0.5</v>
@@ -2017,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="15">
         <v>0.6</v>
@@ -2040,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="15">
         <v>0.5</v>
@@ -2063,7 +2058,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="15">
         <v>0.5</v>
@@ -2086,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="15">
         <v>0.5</v>
@@ -2108,11 +2103,9 @@
       <c r="F16" s="14">
         <v>3</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="G16" s="20"/>
       <c r="H16" s="15">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -2153,13 +2146,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="25">
         <v>9</v>
       </c>
       <c r="F18" s="25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="17">
@@ -2336,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" s="15">
         <v>0.5</v>
@@ -2359,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" s="15">
         <v>0.5</v>
@@ -2382,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" s="15">
         <v>0.5</v>
@@ -2405,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" s="15">
         <v>0.5</v>
@@ -2428,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" s="15">
         <v>0.5</v>
@@ -2451,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" s="15">
         <v>0.5</v>
@@ -2576,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" s="39">
         <v>0.5</v>
@@ -2599,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" s="15">
         <v>0.5</v>
@@ -2607,7 +2600,7 @@
     </row>
     <row r="36" spans="2:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="25">
         <v>18</v>
@@ -2622,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2645,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" s="15">
         <v>0</v>

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="OdontoSys" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Ex. Final</t>
+  </si>
+  <si>
+    <t>Ver restricción de O. Examen - Modificar</t>
   </si>
 </sst>
 </file>
@@ -1175,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,8 +1651,8 @@
   </sheetPr>
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1988,11 +1991,9 @@
       <c r="F11" s="14">
         <v>3</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="G11" s="21"/>
       <c r="H11" s="15">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="2:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2012,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H12" s="15">
         <v>0.6</v>
@@ -2646,11 +2647,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2666,6 +2662,11 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -88,13 +88,6 @@
   </si>
   <si>
     <t>Odontograma Examen (A C)</t>
-  </si>
-  <si>
-    <t>Odontograma Tratamiento (A B M C)</t>
-  </si>
-  <si>
-    <t>Orden de Servicio 
-(A B M C)</t>
   </si>
   <si>
     <t>Agenda</t>
@@ -150,15 +143,6 @@
   </si>
   <si>
     <t>Servicios en fecha</t>
-  </si>
-  <si>
-    <t>Ver restricción de O. Examen</t>
-  </si>
-  <si>
-    <t>Error con usuarios - ver obtención de Id Paciente Actual</t>
-  </si>
-  <si>
-    <t>Error con usuarios - ver obtención de Id Paciente o Doctor Actual</t>
   </si>
   <si>
     <t>Recuperación de datos</t>
@@ -206,9 +190,6 @@
     <t>Planificador de Proyecto Odontosys</t>
   </si>
   <si>
-    <t>Revisar restricciones</t>
-  </si>
-  <si>
     <t>A ENTREGAR</t>
   </si>
   <si>
@@ -221,7 +202,14 @@
     <t>Ex. Final</t>
   </si>
   <si>
-    <t>Ver restricción de O. Examen - Modificar</t>
+    <t>Orden de Servicio 
+(A C)</t>
+  </si>
+  <si>
+    <t>Odontograma Tratamiento (A C)</t>
+  </si>
+  <si>
+    <t>Orden de Servicio (A C)</t>
   </si>
 </sst>
 </file>
@@ -1178,13 +1166,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="27" customWidth="1"/>
+    <col min="1" max="1" width="29.75" style="27" customWidth="1"/>
     <col min="2" max="2" width="39.125" style="27" customWidth="1"/>
     <col min="3" max="5" width="34" style="27" customWidth="1"/>
     <col min="6" max="16384" width="11" style="27"/>
@@ -1192,7 +1180,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -1208,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1240,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1260,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -1280,94 +1268,84 @@
         <v>1</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>46</v>
-      </c>
+      <c r="B11" s="44"/>
       <c r="C11" s="43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="B12" s="23"/>
       <c r="C12" s="17">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>38</v>
-      </c>
+      <c r="B13" s="26"/>
       <c r="C13" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>39</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B14" s="26"/>
       <c r="C14" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="17">
         <v>1</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -1382,12 +1360,12 @@
         <v>1</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -1402,12 +1380,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -1422,24 +1400,24 @@
         <v>1</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="17">
         <v>1</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -1447,91 +1425,91 @@
     </row>
     <row r="25" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25" s="17">
         <v>0.5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C26" s="17">
         <v>0.5</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C27" s="17">
         <v>0.5</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C28" s="17">
         <v>0.5</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C29" s="17">
         <v>0.5</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C30" s="17">
         <v>0.5</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
@@ -1539,21 +1517,21 @@
     </row>
     <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="35">
         <v>0.8</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -1561,58 +1539,58 @@
     </row>
     <row r="34" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C34" s="48">
         <v>0.5</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17">
         <v>0.5</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1640,6 +1618,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione un periodo para resaltarlo en la celda H2. En las celdas J2 hasta AI2 hay una leyenda del gráfico" sqref="A2:B2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="148" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1651,9 +1630,7 @@
   </sheetPr>
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1670,7 +1647,7 @@
   <sheetData>
     <row r="1" spans="2:27" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1706,7 +1683,7 @@
       <c r="V2" s="67"/>
       <c r="W2" s="11"/>
       <c r="X2" s="68" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="69"/>
       <c r="Z2" s="69"/>
@@ -1729,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="61" t="s">
         <v>5</v>
@@ -1993,7 +1970,7 @@
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -2012,11 +1989,9 @@
       <c r="F12" s="14">
         <v>3</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="15">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
@@ -2035,16 +2010,14 @@
       <c r="F13" s="14">
         <v>3</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>38</v>
-      </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C14" s="14">
         <v>3</v>
@@ -2058,16 +2031,14 @@
       <c r="F14" s="14">
         <v>3</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="G14" s="24"/>
       <c r="H14" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C15" s="16">
         <v>6</v>
@@ -2081,16 +2052,14 @@
       <c r="F15" s="14">
         <v>3</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>46</v>
-      </c>
+      <c r="G15" s="29"/>
       <c r="H15" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="16">
         <v>6</v>
@@ -2111,7 +2080,7 @@
     </row>
     <row r="17" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B17" s="49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -2162,7 +2131,7 @@
     </row>
     <row r="19" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B19" s="49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
@@ -2213,7 +2182,7 @@
     </row>
     <row r="21" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B21" s="49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -2264,7 +2233,7 @@
     </row>
     <row r="23" spans="2:27" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="25">
         <v>6</v>
@@ -2285,7 +2254,7 @@
     </row>
     <row r="24" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B24" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -2315,7 +2284,7 @@
     </row>
     <row r="25" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="14">
         <v>9</v>
@@ -2330,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H25" s="15">
         <v>0.5</v>
@@ -2338,7 +2307,7 @@
     </row>
     <row r="26" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="14">
         <v>9</v>
@@ -2353,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H26" s="15">
         <v>0.5</v>
@@ -2361,7 +2330,7 @@
     </row>
     <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="14">
         <v>12</v>
@@ -2376,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H27" s="15">
         <v>0.5</v>
@@ -2384,7 +2353,7 @@
     </row>
     <row r="28" spans="2:27" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="14">
         <v>12</v>
@@ -2399,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H28" s="15">
         <v>0.5</v>
@@ -2407,7 +2376,7 @@
     </row>
     <row r="29" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="14">
         <v>15</v>
@@ -2422,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H29" s="15">
         <v>0.5</v>
@@ -2430,7 +2399,7 @@
     </row>
     <row r="30" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="14">
         <v>15</v>
@@ -2445,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H30" s="15">
         <v>0.5</v>
@@ -2453,7 +2422,7 @@
     </row>
     <row r="31" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B31" s="49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
@@ -2483,7 +2452,7 @@
     </row>
     <row r="32" spans="2:27" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="33">
         <v>18</v>
@@ -2498,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H32" s="35">
         <v>0.8</v>
@@ -2525,7 +2494,7 @@
     </row>
     <row r="33" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B33" s="49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
@@ -2555,7 +2524,7 @@
     </row>
     <row r="34" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B34" s="36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="37">
         <v>18</v>
@@ -2570,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H34" s="39">
         <v>0.5</v>
@@ -2578,7 +2547,7 @@
     </row>
     <row r="35" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" s="14">
         <v>18</v>
@@ -2593,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H35" s="15">
         <v>0.5</v>
@@ -2601,7 +2570,7 @@
     </row>
     <row r="36" spans="2:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="25">
         <v>18</v>
@@ -2616,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H36" s="17">
         <v>0</v>
@@ -2624,7 +2593,7 @@
     </row>
     <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="14">
         <v>18</v>
@@ -2639,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H37" s="15">
         <v>0</v>
@@ -2647,6 +2616,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2662,11 +2636,6 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OdontoSys" sheetId="2" r:id="rId1"/>
@@ -216,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -343,6 +343,29 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="13"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -548,7 +571,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,6 +780,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:D23"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1444,7 @@
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>42</v>
@@ -1423,7 +1458,7 @@
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
     </row>
-    <row r="25" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>22</v>
       </c>
@@ -1437,7 +1472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>23</v>
       </c>
@@ -1466,20 +1501,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="72">
         <v>0.5</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="73" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>26</v>
       </c>
@@ -1493,7 +1528,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>27</v>
       </c>
@@ -1537,7 +1572,7 @@
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
     </row>
-    <row r="34" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>26</v>
       </c>
@@ -1545,13 +1580,13 @@
         <v>36</v>
       </c>
       <c r="C34" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>27</v>
       </c>
@@ -1630,7 +1665,9 @@
   </sheetPr>
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2249,7 +2286,7 @@
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -2302,7 +2339,7 @@
         <v>35</v>
       </c>
       <c r="H25" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
@@ -2325,7 +2362,7 @@
         <v>35</v>
       </c>
       <c r="H26" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2348,7 +2385,7 @@
         <v>35</v>
       </c>
       <c r="H27" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="34.5" x14ac:dyDescent="0.25">
@@ -2370,9 +2407,7 @@
       <c r="G28" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="15">
-        <v>0.5</v>
-      </c>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
@@ -2394,7 +2429,7 @@
         <v>35</v>
       </c>
       <c r="H29" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
@@ -2616,11 +2651,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2636,6 +2666,11 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="OdontoSys" sheetId="2" r:id="rId1"/>
@@ -719,6 +719,18 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -780,18 +792,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,12 +1214,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
@@ -1227,32 +1227,32 @@
       <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="55" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
@@ -1267,12 +1267,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1287,12 +1287,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -1379,12 +1379,12 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -1399,12 +1399,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -1419,12 +1419,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -1444,19 +1444,19 @@
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
     </row>
     <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
@@ -1466,7 +1466,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="38" t="s">
         <v>43</v>
@@ -1480,7 +1480,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>43</v>
@@ -1494,23 +1494,23 @@
         <v>35</v>
       </c>
       <c r="C27" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="51">
         <v>0.5</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="52" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>43</v>
@@ -1536,19 +1536,19 @@
         <v>35</v>
       </c>
       <c r="C30" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
     </row>
     <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
@@ -1561,16 +1561,16 @@
         <v>0.8</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
@@ -1665,8 +1665,8 @@
   </sheetPr>
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1694,58 +1694,58 @@
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="2:27" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="28"/>
       <c r="H2" s="30"/>
       <c r="I2" s="31"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="65" t="s">
+      <c r="S2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="67"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
       <c r="W2" s="11"/>
-      <c r="X2" s="68" t="s">
+      <c r="X2" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
     </row>
     <row r="3" spans="2:27" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="59" t="s">
+      <c r="C3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="65" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -1771,13 +1771,13 @@
       <c r="AA3" s="6"/>
     </row>
     <row r="4" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="3">
         <v>1</v>
       </c>
@@ -1837,34 +1837,34 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
     </row>
     <row r="6" spans="2:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="36" t="s">
@@ -1888,34 +1888,34 @@
       </c>
     </row>
     <row r="7" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
     </row>
     <row r="8" spans="2:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
@@ -1939,34 +1939,34 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
     </row>
     <row r="10" spans="2:27" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
@@ -2116,34 +2116,34 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
     </row>
     <row r="18" spans="2:27" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
@@ -2167,34 +2167,34 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
     </row>
     <row r="20" spans="2:27" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
@@ -2218,34 +2218,34 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
     </row>
     <row r="22" spans="2:27" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
@@ -2286,38 +2286,38 @@
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
     </row>
     <row r="25" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
@@ -2452,38 +2452,38 @@
         <v>35</v>
       </c>
       <c r="H30" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
     </row>
     <row r="32" spans="2:27" ht="34.5" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
@@ -2528,34 +2528,34 @@
       <c r="AA32" s="40"/>
     </row>
     <row r="33" spans="2:27" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
     </row>
     <row r="34" spans="2:27" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B34" s="36" t="s">
@@ -2651,6 +2651,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2666,11 +2671,6 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Odontosys - Diagrama de Gantt.xlsx
+++ b/Odontosys - Diagrama de Gantt.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Orden de Servicio (A C)</t>
+  </si>
+  <si>
+    <t>Documentación</t>
+  </si>
+  <si>
+    <t>Manual de Usuario</t>
+  </si>
+  <si>
+    <t>Historial Médico</t>
   </si>
 </sst>
 </file>
@@ -368,7 +377,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +586,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,6 +808,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1199,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,12 +1265,12 @@
       <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
@@ -1267,12 +1285,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1287,12 +1305,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -1399,12 +1417,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -1419,12 +1437,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -1544,7 +1562,7 @@
     </row>
     <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -1552,11 +1570,9 @@
     </row>
     <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>33</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B32" s="34"/>
       <c r="C32" s="35">
         <v>0.8</v>
       </c>
@@ -1594,37 +1610,51 @@
         <v>36</v>
       </c>
       <c r="C35" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="C36" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
       </c>
       <c r="D37" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0</v>
+      </c>
+      <c r="D38" s="38" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2651,11 +2681,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B33:AA33"/>
-    <mergeCell ref="B31:AA31"/>
-    <mergeCell ref="B24:AA24"/>
-    <mergeCell ref="B21:AA21"/>
-    <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B17:AA17"/>
     <mergeCell ref="B9:AA9"/>
     <mergeCell ref="B7:AA7"/>
@@ -2671,6 +2696,11 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B33:AA33"/>
+    <mergeCell ref="B31:AA31"/>
+    <mergeCell ref="B24:AA24"/>
+    <mergeCell ref="B21:AA21"/>
+    <mergeCell ref="B19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:AA6 I34:AA37 I32:AA32 I25:AA30 I22:AA23 I20:AA20 I18:AA18 I10:AA16 I8:AA8">
     <cfRule type="expression" dxfId="9" priority="1">
